--- a/Docs/Attachments/TE0715-04-30-1C benchmark.xlsx
+++ b/Docs/Attachments/TE0715-04-30-1C benchmark.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t xml:space="preserve">Binary</t>
   </si>
@@ -162,6 +162,15 @@
   </si>
   <si>
     <t xml:space="preserve">trenz_1024_bit_UnumCalculator </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageSharpSample (small)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageSharpSample (6.4 MP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImageSharpSample (73.2 MP)</t>
   </si>
 </sst>
 </file>
@@ -175,7 +184,7 @@
     <numFmt numFmtId="167" formatCode="\+##0;\-##0"/>
     <numFmt numFmtId="168" formatCode="#,##0&quot;Hz&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -246,6 +255,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -402,192 +417,200 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -673,748 +696,841 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ19"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="64.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="17.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="64.7"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" s="5" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
+      <c r="AMI1" s="1"/>
+      <c r="AMJ1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="7" t="n">
         <v>41786</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="7" t="n">
         <v>209.7942</v>
       </c>
-      <c r="D2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="n">
+      <c r="D2" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>204</v>
       </c>
-      <c r="F2" s="6" t="n">
+      <c r="F2" s="7" t="n">
         <v>215</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="8" t="n">
         <f aca="false">D2/F2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="9" t="n">
         <f aca="false">C2/F2</f>
         <v>0.975786976744186</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="9" t="n">
         <f aca="false">B2/F2 - 1</f>
         <v>193.353488372093</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="13" t="n">
         <v>878</v>
       </c>
-      <c r="C3" s="12" t="n">
+      <c r="C3" s="13" t="n">
         <v>769.2309</v>
       </c>
-      <c r="D3" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="n">
+      <c r="D3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="n">
         <v>770</v>
       </c>
-      <c r="F3" s="12" t="n">
+      <c r="F3" s="13" t="n">
         <v>778</v>
       </c>
-      <c r="G3" s="13" t="n">
+      <c r="G3" s="14" t="n">
         <f aca="false">D3/F3</f>
         <v>0.0012853470437018</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="15" t="n">
         <f aca="false">C3/F3</f>
         <v>0.988728663239075</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="15" t="n">
         <f aca="false">B3/F3 - 1</f>
         <v>0.12853470437018</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
-      <c r="M3" s="17" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="M3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="19" t="n">
+      <c r="B4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="n">
         <v>0.1561</v>
       </c>
-      <c r="D4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19" t="n">
+      <c r="D4" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="20" t="n">
+      <c r="G4" s="21" t="n">
         <f aca="false">D4/F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="21" t="n">
+      <c r="H4" s="22" t="n">
         <f aca="false">C4/F4</f>
         <v>0.0520333333333333</v>
       </c>
-      <c r="I4" s="21" t="n">
+      <c r="I4" s="22" t="n">
         <f aca="false">B4/F4 - 1</f>
         <v>-1</v>
       </c>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="22" t="n">
+      <c r="B5" s="23" t="n">
         <v>2788</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="23" t="n">
         <v>26.294</v>
       </c>
-      <c r="D5" s="22" t="n">
+      <c r="D5" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="23" t="n">
         <v>54</v>
       </c>
-      <c r="F5" s="22" t="n">
+      <c r="F5" s="23" t="n">
         <v>115</v>
       </c>
-      <c r="G5" s="23" t="n">
+      <c r="G5" s="24" t="n">
         <f aca="false">D5/F5</f>
         <v>0.130434782608696</v>
       </c>
-      <c r="H5" s="24" t="n">
+      <c r="H5" s="25" t="n">
         <f aca="false">C5/F5</f>
         <v>0.22864347826087</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="15" t="n">
         <f aca="false">B5/F5 - 1</f>
         <v>23.2434782608696</v>
       </c>
-      <c r="J5" s="15" t="n">
+      <c r="J5" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="K5" s="16" t="n">
+      <c r="K5" s="17" t="n">
         <v>111111110</v>
       </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26" t="s">
+      <c r="M5" s="26"/>
+      <c r="N5" s="27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="19" t="n">
+      <c r="B6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20" t="n">
         <v>0.0001</v>
       </c>
-      <c r="D6" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="19" t="n">
+      <c r="D6" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20" t="n">
         <v>12</v>
       </c>
-      <c r="G6" s="20" t="n">
+      <c r="G6" s="21" t="n">
         <f aca="false">D6/F6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="21" t="n">
+      <c r="H6" s="22" t="n">
         <f aca="false">C6/F6</f>
         <v>8.33333333333333E-006</v>
       </c>
-      <c r="I6" s="21" t="n">
+      <c r="I6" s="22" t="n">
         <f aca="false">B6/F6 - 1</f>
         <v>-1</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="M6" s="27" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="11"/>
+      <c r="M6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="30" t="n">
+      <c r="B7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="31" t="n">
         <v>0.0001</v>
       </c>
-      <c r="D7" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30" t="n">
+      <c r="D7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="31" t="n">
+      <c r="G7" s="32" t="n">
         <f aca="false">D7/F7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="32" t="n">
+      <c r="H7" s="33" t="n">
         <f aca="false">C7/F7</f>
         <v>3.33333333333333E-005</v>
       </c>
-      <c r="I7" s="32" t="n">
+      <c r="I7" s="33" t="n">
         <f aca="false">B7/F7 - 1</f>
         <v>-1</v>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="M7" s="27" t="s">
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="M7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="29" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="33" t="n">
+      <c r="B8" s="34" t="n">
         <v>3285</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>24.7237</v>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="n">
+      <c r="D8" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="8" t="n">
         <f aca="false">D8/F8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="9" t="n">
         <f aca="false">C8/F8</f>
         <v>0.824123333333333</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="9" t="n">
         <f aca="false">B8/F8 - 1</f>
         <v>108.5</v>
       </c>
-      <c r="J8" s="9" t="n">
+      <c r="J8" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="11" t="n">
         <v>124999999</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="28" t="s">
+      <c r="N8" s="29" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="30" t="n">
+      <c r="B9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="31" t="n">
         <v>0.0009</v>
       </c>
-      <c r="D9" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="30" t="n">
+      <c r="D9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="G9" s="31" t="n">
+      <c r="G9" s="32" t="n">
         <f aca="false">D9/F9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="32" t="n">
+      <c r="H9" s="33" t="n">
         <f aca="false">C9/F9</f>
         <v>0.0003</v>
       </c>
-      <c r="I9" s="32" t="n">
+      <c r="I9" s="33" t="n">
         <f aca="false">B9/F9 - 1</f>
         <v>-1</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="16"/>
-      <c r="M9" s="27" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="M9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="29" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="33" t="n">
+      <c r="B10" s="34" t="n">
         <v>29395</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>240.0046</v>
       </c>
-      <c r="D10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="n">
+      <c r="D10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7" t="n">
         <v>240</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="7" t="n">
         <v>248</v>
       </c>
-      <c r="G10" s="7" t="n">
+      <c r="G10" s="8" t="n">
         <f aca="false">D10/F10</f>
         <v>0.00403225806451613</v>
       </c>
-      <c r="H10" s="8" t="n">
+      <c r="H10" s="9" t="n">
         <f aca="false">C10/F10</f>
         <v>0.967760483870968</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="9" t="n">
         <f aca="false">B10/F10 - 1</f>
         <v>117.528225806452</v>
       </c>
-      <c r="J10" s="9" t="n">
+      <c r="J10" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="K10" s="10" t="n">
+      <c r="K10" s="11" t="n">
         <v>124999999</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26" t="s">
+      <c r="M10" s="26"/>
+      <c r="N10" s="27" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="30" t="n">
+      <c r="B11" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="31" t="n">
         <v>0.0255</v>
       </c>
-      <c r="D11" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="30" t="n">
+      <c r="D11" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G11" s="32" t="n">
         <f aca="false">D11/F11</f>
         <v>0.333333333333333</v>
       </c>
-      <c r="H11" s="32" t="n">
+      <c r="H11" s="33" t="n">
         <f aca="false">C11/F11</f>
         <v>0.0085</v>
       </c>
-      <c r="I11" s="32" t="n">
+      <c r="I11" s="33" t="n">
         <f aca="false">B11/F11 - 1</f>
         <v>-1</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="16"/>
-      <c r="M11" s="27" t="s">
+      <c r="J11" s="16"/>
+      <c r="K11" s="17"/>
+      <c r="M11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="28" t="s">
+      <c r="N11" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="34" t="n">
+      <c r="B12" s="35" t="n">
         <v>113</v>
       </c>
-      <c r="C12" s="34" t="n">
+      <c r="C12" s="35" t="n">
         <v>521.6813</v>
       </c>
-      <c r="D12" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="34" t="n">
+      <c r="D12" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="35" t="n">
         <v>521</v>
       </c>
-      <c r="F12" s="34" t="n">
+      <c r="F12" s="35" t="n">
         <v>532</v>
       </c>
-      <c r="G12" s="35" t="n">
+      <c r="G12" s="36" t="n">
         <f aca="false">D12/F12</f>
         <v>0.0018796992481203</v>
       </c>
-      <c r="H12" s="36" t="n">
+      <c r="H12" s="37" t="n">
         <f aca="false">C12/F12</f>
         <v>0.980603947368421</v>
       </c>
-      <c r="I12" s="37" t="n">
+      <c r="I12" s="38" t="n">
         <f aca="false">B12/F12 - 1</f>
         <v>-0.787593984962406</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="M12" s="27" t="s">
+      <c r="J12" s="10"/>
+      <c r="K12" s="11"/>
+      <c r="M12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="28" t="s">
+      <c r="N12" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="13" t="n">
         <v>82</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="13" t="n">
         <v>44.4477</v>
       </c>
-      <c r="D13" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12" t="n">
+      <c r="D13" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13" t="n">
         <v>42</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="13" t="n">
         <v>50</v>
       </c>
-      <c r="G13" s="13" t="n">
+      <c r="G13" s="14" t="n">
         <f aca="false">D13/F13</f>
         <v>0.02</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="15" t="n">
         <f aca="false">C13/F13</f>
         <v>0.888954</v>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I13" s="15" t="n">
         <f aca="false">B13/F13 - 1</f>
         <v>0.64</v>
       </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="16"/>
-      <c r="M13" s="27" t="s">
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="M13" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="N13" s="28" t="s">
+      <c r="N13" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="34" t="n">
+      <c r="B14" s="35" t="n">
         <v>46594</v>
       </c>
-      <c r="C14" s="34" t="n">
+      <c r="C14" s="35" t="n">
         <v>6875.0092</v>
       </c>
-      <c r="D14" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="34" t="n">
+      <c r="D14" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="35" t="n">
         <v>6881</v>
       </c>
-      <c r="F14" s="34" t="n">
+      <c r="F14" s="35" t="n">
         <v>6904</v>
       </c>
-      <c r="G14" s="35" t="n">
+      <c r="G14" s="36" t="n">
         <f aca="false">D14/F14</f>
         <v>0.000144843568945539</v>
       </c>
-      <c r="H14" s="36" t="n">
+      <c r="H14" s="37" t="n">
         <f aca="false">C14/F14</f>
         <v>0.995800869061414</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="9" t="n">
         <f aca="false">B14/F14 - 1</f>
         <v>5.74884125144844</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26" t="s">
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="30" t="n">
+      <c r="B15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="31" t="n">
         <v>0.0003</v>
       </c>
-      <c r="D15" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="30" t="n">
+      <c r="D15" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G15" s="32" t="n">
         <f aca="false">D15/F15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="32" t="n">
+      <c r="H15" s="33" t="n">
         <f aca="false">C15/F15</f>
         <v>5E-005</v>
       </c>
-      <c r="I15" s="32" t="n">
+      <c r="I15" s="33" t="n">
         <f aca="false">B15/F15 - 1</f>
         <v>-1</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-      <c r="M15" s="27" t="s">
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="M15" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="28" t="s">
+      <c r="N15" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19" t="n">
+      <c r="B16" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="20" t="n">
         <v>0.0006</v>
       </c>
-      <c r="D16" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="19" t="n">
+      <c r="D16" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="G16" s="20" t="n">
+      <c r="G16" s="21" t="n">
         <f aca="false">D16/F16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="21" t="n">
+      <c r="H16" s="22" t="n">
         <f aca="false">C16/F16</f>
         <v>0.0002</v>
       </c>
-      <c r="I16" s="21" t="n">
+      <c r="I16" s="22" t="n">
         <f aca="false">B16/F16 - 1</f>
         <v>-1</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-      <c r="M16" s="27" t="s">
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+      <c r="M16" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="29" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="30" t="n">
+      <c r="B17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="31" t="n">
         <v>0.0135</v>
       </c>
-      <c r="D17" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="30" t="n">
+      <c r="D17" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="G17" s="31" t="n">
+      <c r="G17" s="32" t="n">
         <f aca="false">D17/F17</f>
         <v>0.166666666666667</v>
       </c>
-      <c r="H17" s="32" t="n">
+      <c r="H17" s="33" t="n">
         <f aca="false">C17/F17</f>
         <v>0.00225</v>
       </c>
-      <c r="I17" s="32" t="n">
+      <c r="I17" s="33" t="n">
         <f aca="false">B17/F17 - 1</f>
         <v>-1</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-      <c r="M17" s="38" t="s">
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="M17" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="N17" s="40" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="41" t="n">
+      <c r="B18" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="C18" s="41" t="n">
+      <c r="C18" s="7" t="n">
         <v>4.7977</v>
       </c>
-      <c r="D18" s="41" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="41" t="n">
+      <c r="D18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F18" s="41" t="n">
+      <c r="F18" s="7" t="n">
         <v>51</v>
       </c>
-      <c r="G18" s="42" t="n">
+      <c r="G18" s="8" t="n">
         <f aca="false">D18/F18</f>
         <v>0.0196078431372549</v>
       </c>
-      <c r="H18" s="43" t="n">
+      <c r="H18" s="9" t="n">
         <f aca="false">C18/F18</f>
         <v>0.0940725490196078</v>
       </c>
-      <c r="I18" s="44" t="n">
+      <c r="I18" s="38" t="n">
         <f aca="false">B18/F18 - 1</f>
         <v>-0.607843137254902</v>
       </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="11"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C19" s="31" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="D19" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="31" t="n">
+        <v>54</v>
+      </c>
+      <c r="G19" s="32" t="n">
+        <f aca="false">D19/F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="33" t="n">
+        <f aca="false">C19/F19</f>
+        <v>0.00140740740740741</v>
+      </c>
+      <c r="I19" s="33" t="n">
+        <f aca="false">B19/F19 - 1</f>
+        <v>-0.833333333333333</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>85</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>1.2926</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="n">
+        <v>272</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <f aca="false">D20/F20</f>
+        <v>0.0551470588235294</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <f aca="false">C20/F20</f>
+        <v>0.00475220588235294</v>
+      </c>
+      <c r="I20" s="38" t="n">
+        <f aca="false">B20/F20 - 1</f>
+        <v>-0.6875</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="44" t="n">
+        <v>762</v>
+      </c>
+      <c r="C21" s="44" t="n">
+        <v>22.2793</v>
+      </c>
+      <c r="D21" s="44" t="n">
+        <v>6</v>
+      </c>
+      <c r="E21" s="44" t="n">
+        <v>24</v>
+      </c>
+      <c r="F21" s="44" t="n">
+        <v>1194</v>
+      </c>
+      <c r="G21" s="45" t="n">
+        <f aca="false">D21/F21</f>
+        <v>0.0050251256281407</v>
+      </c>
+      <c r="H21" s="46" t="n">
+        <f aca="false">C21/F21</f>
+        <v>0.0186593802345059</v>
+      </c>
+      <c r="I21" s="46" t="n">
+        <f aca="false">B21/F21 - 1</f>
+        <v>-0.361809045226131</v>
+      </c>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1422,7 +1538,7 @@
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="N17:N18"/>
   </mergeCells>
-  <conditionalFormatting sqref="I2:I18">
+  <conditionalFormatting sqref="I2:I21">
     <cfRule type="cellIs" priority="2" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
